--- a/MAPA_LLUVIAS.xlsx
+++ b/MAPA_LLUVIAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,28 +583,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,3</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-1.717333333333333</v>
+        <v>16.58266666666667</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>+16,6</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Mucho más</t>
         </is>
       </c>
     </row>
@@ -667,28 +667,28 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-1.666</v>
+        <v>33.434</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>+33,4</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Mucho más</t>
         </is>
       </c>
     </row>
@@ -751,28 +751,28 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-2.039777777777778</v>
+        <v>9.16022222222222</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>+9,2</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Más</t>
         </is>
       </c>
     </row>
@@ -835,28 +835,28 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-1.885555555555556</v>
+        <v>-1.785555555555556</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -919,12 +919,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -958,21 +958,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C249I</t>
+          <t>C139E</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fuerteventura Aeropuerto</t>
+          <t>La Palma Aeropuerto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Santa Cruz De Tenerife</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>1981</v>
@@ -986,52 +986,52 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.416666666666667</v>
+        <v>11.69</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.08055555555555556</v>
+        <v>0.3896666666666667</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-0.08055555555555556</v>
+        <v>3.810333333333333</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>+3,8</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>28.444722</v>
+        <v>28.633056</v>
       </c>
       <c r="S7" t="n">
-        <v>-13.863056</v>
+        <v>-17.755</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1042,24 +1042,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C329B</t>
+          <t>C249I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aeropuerto, La Gomera</t>
+          <t>Fuerteventura Aeropuerto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sta. Cruz De Tenerife</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="F8" t="n">
         <v>2010</v>
@@ -1070,29 +1070,29 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.011111111111111</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.167037037037037</v>
+        <v>0.08055555555555556</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1104,18 +1104,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>-0.167037037037037</v>
+        <v>-0.08055555555555556</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>28.031667</v>
+        <v>28.444722</v>
       </c>
       <c r="S8" t="n">
-        <v>-17.210833</v>
+        <v>-13.863056</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1126,24 +1126,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C429I</t>
+          <t>C329B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tenerife Sur Aeropuerto</t>
+          <t>Aeropuerto, La Gomera</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Santa Cruz De Tenerife</t>
+          <t>Sta. Cruz De Tenerife</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="E9" t="n">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="F9" t="n">
         <v>2010</v>
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.583333333333333</v>
+        <v>5.011111111111111</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.1194444444444444</v>
+        <v>0.167037037037037</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1188,18 +1188,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>-0.1194444444444444</v>
+        <v>-0.167037037037037</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>28.046944</v>
+        <v>28.031667</v>
       </c>
       <c r="S9" t="n">
-        <v>-16.561111</v>
+        <v>-17.210833</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1210,12 +1210,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C430E</t>
+          <t>C429I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Izaña</t>
+          <t>Tenerife Sur Aeropuerto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2369</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
         <v>1981</v>
@@ -1238,29 +1238,29 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.30333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.410111111111111</v>
+        <v>0.1194444444444444</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1272,18 +1272,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>-0.410111111111111</v>
+        <v>-0.1194444444444444</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>28.308333</v>
+        <v>28.046944</v>
       </c>
       <c r="S10" t="n">
-        <v>-16.499722</v>
+        <v>-16.561111</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1294,12 +1294,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C447A</t>
+          <t>C430E</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tenerife Norte Aeropuerto</t>
+          <t>Izaña</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>632</v>
+        <v>2369</v>
       </c>
       <c r="E11" t="n">
         <v>1981</v>
@@ -1322,52 +1322,52 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16.07</v>
+        <v>12.30333333333333</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>16,1</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.5356666666666666</v>
+        <v>0.410111111111111</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-0.3356666666666666</v>
+        <v>2.389888888888889</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>+2,4</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>28.4775</v>
+        <v>28.308333</v>
       </c>
       <c r="S11" t="n">
-        <v>-16.329444</v>
+        <v>-16.499722</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1378,24 +1378,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C658L</t>
+          <t>C447A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Las Palmas De G.C. (Tafira Cmt)</t>
+          <t>Tenerife Norte Aeropuerto</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Santa Cruz De Tenerife</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>632</v>
       </c>
       <c r="E12" t="n">
-        <v>1993</v>
+        <v>1981</v>
       </c>
       <c r="F12" t="n">
         <v>2010</v>
@@ -1406,52 +1406,52 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>16.07</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>16,1</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.5356666666666666</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.9666666666666666</v>
+        <v>-0.1356666666666666</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>+1,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>28.075</v>
+        <v>28.4775</v>
       </c>
       <c r="S12" t="n">
-        <v>-15.450833</v>
+        <v>-16.329444</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1462,21 +1462,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C929I</t>
+          <t>C649I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hierro Aeropuerto</t>
+          <t>Gran Canaria Aeropuerto</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Santa Cruz De Tenerife</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
         <v>1981</v>
@@ -1490,41 +1490,41 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3.216666666666667</v>
+        <v>9.06</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.1072222222222222</v>
+        <v>0.302</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>-0.1072222222222222</v>
+        <v>-0.102</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="R13" t="n">
-        <v>27.818889</v>
+        <v>27.917778</v>
       </c>
       <c r="S13" t="n">
-        <v>-17.888889</v>
+        <v>-15.395278</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1546,24 +1546,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0016A</t>
+          <t>C658L</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Reus Aeropuerto</t>
+          <t>Las Palmas De G.C. (Tafira Cmt)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tarragona</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="E14" t="n">
-        <v>1981</v>
+        <v>1993</v>
       </c>
       <c r="F14" t="n">
         <v>2010</v>
@@ -1574,52 +1574,52 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>74.93666666666667</v>
+        <v>7</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>74,9</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2.497888888888889</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>-2.497888888888889</v>
+        <v>1.966666666666667</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>+2,0</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>41.145</v>
+        <v>28.075</v>
       </c>
       <c r="S14" t="n">
-        <v>1.163611</v>
+        <v>-15.450833</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1630,21 +1630,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0200E</t>
+          <t>C929I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fabra, Barcelona</t>
+          <t>Hierro Aeropuerto</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Santa Cruz De Tenerife</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>408</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v>1981</v>
@@ -1658,29 +1658,29 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>74.88666666666667</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>74,9</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2.496222222222222</v>
+        <v>0.1072222222222222</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1692,18 +1692,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>-2.496222222222222</v>
+        <v>-0.1072222222222222</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>41.418333</v>
+        <v>27.818889</v>
       </c>
       <c r="S15" t="n">
-        <v>2.124167</v>
+        <v>-17.888889</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1714,21 +1714,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1024E</t>
+          <t>0016A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Igeldo, Donostia / San Sebastián</t>
+          <t>Reus Aeropuerto</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gipuzkoa</t>
+          <t>Tarragona</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>1981</v>
@@ -1742,77 +1742,77 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>111.37</v>
+        <v>74.93666666666667</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>111,4</t>
+          <t>74,9</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3.712333333333333</v>
+        <v>2.497888888888889</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.8</v>
+        <v>38.8</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>38,8</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>-2.912333333333334</v>
+        <v>36.30211111111111</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>+36,3</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>43.306389</v>
+        <v>41.145</v>
       </c>
       <c r="S16" t="n">
-        <v>-2.041111</v>
+        <v>1.163611</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Mucho más</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>0200E</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bilbao Aeropuerto</t>
+          <t>Fabra, Barcelona</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bizkaia</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>408</v>
       </c>
       <c r="E17" t="n">
         <v>1981</v>
@@ -1826,52 +1826,52 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>73.24666666666667</v>
+        <v>74.88666666666667</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>73,2</t>
+          <t>74,9</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2.441555555555555</v>
+        <v>2.496222222222222</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>-2.441555555555555</v>
+        <v>0.4037777777777776</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>+0,4</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>43.298056</v>
+        <v>41.418333</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.906389</v>
+        <v>2.124167</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1882,21 +1882,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Santander Aeropuerto</t>
+          <t>Malkarroa, Hondarribia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cantabria</t>
+          <t>Gipuzkoa</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>1981</v>
@@ -1910,164 +1910,150 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>83.28333333333333</v>
+        <v>132.1033333333333</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>83,3</t>
+          <t>132,1</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2.776111111111111</v>
+        <v>4.403444444444443</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>-2.776111111111111</v>
+        <v>5.496555555555557</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>+5,5</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>43.423889</v>
+        <v>43.356944</v>
       </c>
       <c r="S18" t="n">
-        <v>-3.825556</v>
+        <v>-1.792222</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Más</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1207U</t>
+          <t>1014A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Campus, Gijón</t>
+          <t>Donostia / San Sebastián Aeropuerto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Asturias</t>
+          <t>Gipuzkoa</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1981</v>
+        <v>2004</v>
       </c>
       <c r="F19" t="n">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>septiembre</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>60.25</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>60,2</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>2.008333333333333</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>-2.008333333333333</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
+          <t>10,1</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>43.523056</v>
+        <v>43.356944</v>
       </c>
       <c r="S19" t="n">
-        <v>-5.621111</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Similar</t>
-        </is>
-      </c>
+        <v>-1.792222</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1208H</t>
+          <t>1024E</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Puerto, Gijón</t>
+          <t>Igeldo, Donostia / San Sebastián</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Asturias</t>
+          <t>Gipuzkoa</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E20" t="n">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="F20" t="n">
         <v>2010</v>
@@ -2078,77 +2064,77 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>55.17</v>
+        <v>111.37</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>55,2</t>
+          <t>111,4</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1.839</v>
+        <v>3.712333333333333</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,4</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>-1.839</v>
+        <v>16.68766666666667</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>+16,7</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>43.559722</v>
+        <v>43.306389</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.700833</v>
+        <v>-2.041111</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Mucho más</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1212E</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Asturias Aeropuerto</t>
+          <t>Bilbao Aeropuerto</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Asturias</t>
+          <t>Bizkaia</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
         <v>1981</v>
@@ -2162,77 +2148,77 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>69.04074074074073</v>
+        <v>73.24666666666667</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>69,0</t>
+          <t>73,2</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2.301358024691358</v>
+        <v>2.441555555555555</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.1</v>
+        <v>9.1</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>-2.201358024691358</v>
+        <v>6.658444444444444</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>+6,7</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>43.566944</v>
+        <v>43.298056</v>
       </c>
       <c r="S21" t="n">
-        <v>-6.044167</v>
+        <v>-2.906389</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Más</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1249X</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oviedo</t>
+          <t>Santander Aeropuerto</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Asturias</t>
+          <t>Cantabria</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>334</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
         <v>1981</v>
@@ -2245,67 +2231,81 @@
           <t>septiembre</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>83.28333333333333</v>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>83,3</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>2.776111111111111</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.023888888888889</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>+3,0</t>
+        </is>
+      </c>
       <c r="R22" t="n">
-        <v>43.353333</v>
+        <v>43.423889</v>
       </c>
       <c r="S22" t="n">
-        <v>-5.873889</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
+        <v>-3.825556</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Similar</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1354C</t>
+          <t>1208H</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Puerto, Gijón</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A Coruña</t>
+          <t>Asturias</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="F23" t="n">
         <v>2010</v>
@@ -2316,77 +2316,77 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>51.88333333333333</v>
+        <v>55.17</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>51,9</t>
+          <t>55,2</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1.729444444444444</v>
+        <v>1.839</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6.8</v>
+        <v>0.2</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>5.070555555555556</v>
+        <v>-1.639</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>+5,1</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>43.476389</v>
+        <v>43.559722</v>
       </c>
       <c r="S23" t="n">
-        <v>-8.262222</v>
+        <v>-5.700833</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Similar</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>1212E</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A Coruña</t>
+          <t>Asturias Aeropuerto</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A Coruña</t>
+          <t>Asturias</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="E24" t="n">
         <v>1981</v>
@@ -2400,52 +2400,52 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>63.55333333333333</v>
+        <v>69.04074074074073</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>63,6</t>
+          <t>69,0</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2.118444444444444</v>
+        <v>2.301358024691358</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.681555555555556</v>
+        <v>-1.101358024691358</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>+3,7</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>43.365833</v>
+        <v>43.566944</v>
       </c>
       <c r="S24" t="n">
-        <v>-8.421389</v>
+        <v>-6.044167</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2456,21 +2456,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1387E</t>
+          <t>1249X</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A Coruña Aeropuerto</t>
+          <t>Oviedo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A Coruña</t>
+          <t>Asturias</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="E25" t="n">
         <v>1981</v>
@@ -2483,69 +2483,55 @@
           <t>septiembre</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>69.80666666666666</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>69,8</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>2.326888888888889</v>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>-0.8268888888888886</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>43.306944</v>
+        <v>43.353333</v>
       </c>
       <c r="S25" t="n">
-        <v>-8.371943999999999</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Similar</t>
-        </is>
-      </c>
+        <v>-5.873889</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1354C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Santiago De Compostela Aeropuerto</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2554,10 +2540,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>1981</v>
+        <v>2004</v>
       </c>
       <c r="F26" t="n">
         <v>2010</v>
@@ -2568,52 +2554,52 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>106.6366666666667</v>
+        <v>51.88333333333333</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>106,6</t>
+          <t>51,9</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>3.554555555555557</v>
+        <v>1.729444444444444</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>7.6</v>
+        <v>0.3</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.045444444444443</v>
+        <v>-1.429444444444444</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>+4,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>42.888056</v>
+        <v>43.476389</v>
       </c>
       <c r="S26" t="n">
-        <v>-8.410556</v>
+        <v>-8.262222</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2624,24 +2610,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1484C</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pontevedra</t>
+          <t>A Coruña</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pontevedra</t>
+          <t>A Coruña</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="F27" t="n">
         <v>2010</v>
@@ -2652,52 +2638,52 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>95.264</v>
+        <v>63.55333333333333</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>95,3</t>
+          <t>63,6</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3.175466666666666</v>
+        <v>2.118444444444444</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-1.575466666666666</v>
+        <v>-1.718444444444444</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>42.438333</v>
+        <v>43.365833</v>
       </c>
       <c r="S27" t="n">
-        <v>-8.615833</v>
+        <v>-8.421389</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -2708,21 +2694,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>1387E</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vigo Aeropuerto</t>
+          <t>A Coruña Aeropuerto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pontevedra</t>
+          <t>A Coruña</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="E28" t="n">
         <v>1981</v>
@@ -2736,52 +2722,52 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>96.69259259259259</v>
+        <v>69.80666666666666</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96,7</t>
+          <t>69,8</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>3.223086419753086</v>
+        <v>2.326888888888889</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.3769135802469137</v>
+        <v>-2.026888888888889</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>+0,4</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>42.238611</v>
+        <v>43.306944</v>
       </c>
       <c r="S28" t="n">
-        <v>-8.623889</v>
+        <v>-8.371943999999999</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2792,24 +2778,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lugo Aeropuerto</t>
+          <t>Santiago De Compostela Aeropuerto</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lugo</t>
+          <t>A Coruña</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="E29" t="n">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="F29" t="n">
         <v>2010</v>
@@ -2820,52 +2806,52 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>67.56538461538462</v>
+        <v>106.6366666666667</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>67,6</t>
+          <t>106,6</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2.252179487179487</v>
+        <v>3.554555555555557</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-1.452179487179487</v>
+        <v>-3.554555555555557</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>43.111111</v>
+        <v>42.888056</v>
       </c>
       <c r="S29" t="n">
-        <v>-7.4575</v>
+        <v>-8.410556</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2876,24 +2862,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1484C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ponferrada</t>
+          <t>Pontevedra</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Pontevedra</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>532</v>
+        <v>113</v>
       </c>
       <c r="E30" t="n">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F30" t="n">
         <v>2010</v>
@@ -2904,29 +2890,29 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>48.90666666666667</v>
+        <v>95.264</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>48,9</t>
+          <t>95,3</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1.630222222222222</v>
+        <v>3.175466666666666</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2938,18 +2924,18 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>-1.630222222222222</v>
+        <v>-3.175466666666666</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>42.563889</v>
+        <v>42.438333</v>
       </c>
       <c r="S30" t="n">
-        <v>-6.6</v>
+        <v>-8.615833</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -2960,21 +2946,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1690A</t>
+          <t>1495</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ourense</t>
+          <t>Vigo Aeropuerto</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ourense</t>
+          <t>Pontevedra</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="E31" t="n">
         <v>1981</v>
@@ -2988,52 +2974,52 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>56.79310344827586</v>
+        <v>96.69259259259259</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>56,8</t>
+          <t>96,7</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1.893103448275862</v>
+        <v>3.223086419753086</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>-1.693103448275862</v>
+        <v>-3.223086419753086</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>42.325278</v>
+        <v>42.238611</v>
       </c>
       <c r="S31" t="n">
-        <v>-7.859722</v>
+        <v>-8.623889</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3044,24 +3030,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Soria</t>
+          <t>Lugo Aeropuerto</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Soria</t>
+          <t>Lugo</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1081</v>
+        <v>442</v>
       </c>
       <c r="E32" t="n">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F32" t="n">
         <v>2010</v>
@@ -3072,29 +3058,29 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>32.94666666666667</v>
+        <v>67.56538461538462</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>32,9</t>
+          <t>67,6</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1.098222222222222</v>
+        <v>2.252179487179487</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -3106,18 +3092,18 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>-1.098222222222222</v>
+        <v>-2.252179487179487</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>41.775</v>
+        <v>43.111111</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.483056</v>
+        <v>-7.4575</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3128,21 +3114,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Burgos Aeropuerto</t>
+          <t>Ponferrada</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>891</v>
+        <v>532</v>
       </c>
       <c r="E33" t="n">
         <v>1981</v>
@@ -3156,29 +3142,29 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>38.26</v>
+        <v>48.90666666666667</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>38,3</t>
+          <t>48,9</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1.275333333333333</v>
+        <v>1.630222222222222</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -3190,18 +3176,18 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>-1.275333333333333</v>
+        <v>-1.630222222222222</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>42.356944</v>
+        <v>42.563889</v>
       </c>
       <c r="S33" t="n">
-        <v>-3.620278</v>
+        <v>-6.6</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3212,21 +3198,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>1690A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Ourense</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Ourense</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>734</v>
+        <v>146</v>
       </c>
       <c r="E34" t="n">
         <v>1981</v>
@@ -3240,29 +3226,29 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>30.72666666666667</v>
+        <v>56.79310344827586</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>30,7</t>
+          <t>56,8</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1.024222222222222</v>
+        <v>1.893103448275862</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3274,18 +3260,18 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>-1.024222222222222</v>
+        <v>-1.893103448275862</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>41.640833</v>
+        <v>42.325278</v>
       </c>
       <c r="S34" t="n">
-        <v>-4.754167</v>
+        <v>-7.859722</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3296,24 +3282,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ávila</t>
+          <t>Burgos Aeropuerto</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Avila</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1130</v>
+        <v>891</v>
       </c>
       <c r="E35" t="n">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F35" t="n">
         <v>2010</v>
@@ -3324,29 +3310,29 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>30.02142857142857</v>
+        <v>38.26</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>38,3</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1.000714285714286</v>
+        <v>1.275333333333333</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3358,18 +3344,18 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>-1.000714285714286</v>
+        <v>-1.275333333333333</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>40.659167</v>
+        <v>42.356944</v>
       </c>
       <c r="S35" t="n">
-        <v>-4.679722</v>
+        <v>-3.620278</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3380,24 +3366,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2444</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Segovia</t>
+          <t>Ávila</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Segovia</t>
+          <t>Avila</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1008</v>
+        <v>1130</v>
       </c>
       <c r="E36" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="F36" t="n">
         <v>2010</v>
@@ -3408,29 +3394,29 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>28.13181818181818</v>
+        <v>30.02142857142857</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>28,1</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.9377272727272726</v>
+        <v>1.000714285714286</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3442,18 +3428,18 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>-0.9377272727272726</v>
+        <v>-1.000714285714286</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>40.945278</v>
+        <v>40.659167</v>
       </c>
       <c r="S36" t="n">
-        <v>-4.126389</v>
+        <v>-4.679722</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3464,24 +3450,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Valladolid Aeropuerto</t>
+          <t>Segovia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Segovia</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>846</v>
+        <v>1008</v>
       </c>
       <c r="E37" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="F37" t="n">
         <v>2010</v>
@@ -3492,29 +3478,29 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>32.28518518518518</v>
+        <v>28.13181818181818</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>32,3</t>
+          <t>28,1</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1.076172839506172</v>
+        <v>0.9377272727272726</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3526,18 +3512,18 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>-1.076172839506172</v>
+        <v>-0.9377272727272726</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>41.711944</v>
+        <v>40.945278</v>
       </c>
       <c r="S37" t="n">
-        <v>-4.855556</v>
+        <v>-4.126389</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3548,21 +3534,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Valladolid Aeropuerto</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>656</v>
+        <v>846</v>
       </c>
       <c r="E38" t="n">
         <v>1981</v>
@@ -3576,29 +3562,29 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>28.11</v>
+        <v>32.28518518518518</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>28,1</t>
+          <t>32,3</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.9369999999999999</v>
+        <v>1.076172839506172</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3610,18 +3596,18 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>-0.9369999999999999</v>
+        <v>-1.076172839506172</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>41.515556</v>
+        <v>41.711944</v>
       </c>
       <c r="S38" t="n">
-        <v>-5.735278</v>
+        <v>-4.855556</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3677,12 +3663,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3761,12 +3747,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3845,12 +3831,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3929,12 +3915,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -4013,12 +3999,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -4097,12 +4083,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4181,12 +4167,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -4265,12 +4251,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -4349,12 +4335,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -4433,12 +4419,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -4517,12 +4503,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -4556,24 +4542,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Badajoz Aeropuerto</t>
+          <t>Ciudad Real</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Badajoz</t>
+          <t>Ciudad Real</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>186</v>
+        <v>626</v>
       </c>
       <c r="E50" t="n">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="F50" t="n">
         <v>2010</v>
@@ -4584,29 +4570,29 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>22.43333333333333</v>
+        <v>26.42666666666667</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>26,4</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.7477777777777777</v>
+        <v>0.8808888888888889</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -4618,18 +4604,18 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>-0.7477777777777777</v>
+        <v>-0.8808888888888889</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>38.883333</v>
+        <v>38.989167</v>
       </c>
       <c r="S50" t="n">
-        <v>-6.813889</v>
+        <v>-3.920278</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4640,24 +4626,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4642E</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ronda Este, Huelva</t>
+          <t>Badajoz Aeropuerto</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Huelva</t>
+          <t>Badajoz</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="E51" t="n">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="F51" t="n">
         <v>2010</v>
@@ -4668,29 +4654,29 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>25.9037037037037</v>
+        <v>22.43333333333333</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>25,9</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.8634567901234568</v>
+        <v>0.7477777777777777</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N51" t="n">
@@ -4702,18 +4688,18 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>-0.8634567901234568</v>
+        <v>-0.7477777777777777</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>37.278333</v>
+        <v>38.883333</v>
       </c>
       <c r="S51" t="n">
-        <v>-6.911667</v>
+        <v>-6.813889</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -4724,24 +4710,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5000C</t>
+          <t>4642E</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Ronda Este, Huelva</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Huelva</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E52" t="n">
-        <v>2003</v>
+        <v>1984</v>
       </c>
       <c r="F52" t="n">
         <v>2010</v>
@@ -4752,29 +4738,29 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>33.47142857142858</v>
+        <v>25.9037037037037</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>33,5</t>
+          <t>25,9</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1.115714285714286</v>
+        <v>0.8634567901234568</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -4786,18 +4772,18 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>-1.115714285714286</v>
+        <v>-0.8634567901234568</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>35.888611</v>
+        <v>37.278333</v>
       </c>
       <c r="S52" t="n">
-        <v>-5.346944</v>
+        <v>-6.911667</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4808,24 +4794,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5270B</t>
+          <t>5000C</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jaén</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>580</v>
+        <v>87</v>
       </c>
       <c r="E53" t="n">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="F53" t="n">
         <v>2010</v>
@@ -4836,29 +4822,29 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>26.38461538461538</v>
+        <v>33.47142857142858</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>26,4</t>
+          <t>33,5</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.8794871794871794</v>
+        <v>1.115714285714286</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -4870,18 +4856,18 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>-0.8794871794871794</v>
+        <v>-1.115714285714286</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>37.7775</v>
+        <v>35.888611</v>
       </c>
       <c r="S53" t="n">
-        <v>-3.809167</v>
+        <v>-5.346944</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -4892,24 +4878,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5514</t>
+          <t>5270B</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Granada Base Aérea</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Jaen</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>687</v>
+        <v>580</v>
       </c>
       <c r="E54" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="F54" t="n">
         <v>2010</v>
@@ -4920,29 +4906,29 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>22.56333333333333</v>
+        <v>26.38461538461538</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>22,6</t>
+          <t>26,4</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.752111111111111</v>
+        <v>0.8794871794871794</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -4954,18 +4940,18 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>-0.752111111111111</v>
+        <v>-0.8794871794871794</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>37.137222</v>
+        <v>37.7775</v>
       </c>
       <c r="S54" t="n">
-        <v>-3.631389</v>
+        <v>-3.809167</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -4976,12 +4962,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5530E</t>
+          <t>5514</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Granada Aeropuerto</t>
+          <t>Granada Base Aérea</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4990,7 +4976,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>560</v>
+        <v>687</v>
       </c>
       <c r="E55" t="n">
         <v>1981</v>
@@ -5004,29 +4990,29 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>19.39333333333333</v>
+        <v>22.56333333333333</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>19,4</t>
+          <t>22,6</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0.6464444444444444</v>
+        <v>0.752111111111111</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -5038,18 +5024,18 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>-0.6464444444444444</v>
+        <v>-0.752111111111111</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>37.190278</v>
+        <v>37.137222</v>
       </c>
       <c r="S55" t="n">
-        <v>-3.789722</v>
+        <v>-3.631389</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5060,21 +5046,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5783</t>
+          <t>5530E</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sevilla Aeropuerto</t>
+          <t>Granada Aeropuerto</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
+        <v>560</v>
       </c>
       <c r="E56" t="n">
         <v>1981</v>
@@ -5088,29 +5074,29 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>26.94333333333334</v>
+        <v>19.39333333333333</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>26,9</t>
+          <t>19,4</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.8981111111111113</v>
+        <v>0.6464444444444444</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -5122,18 +5108,18 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>-0.8981111111111113</v>
+        <v>-0.6464444444444444</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>37.416667</v>
+        <v>37.190278</v>
       </c>
       <c r="S56" t="n">
-        <v>-5.879167</v>
+        <v>-3.789722</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5144,12 +5130,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5796</t>
+          <t>5783</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Morón De La Frontera</t>
+          <t>Sevilla Aeropuerto</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5158,7 +5144,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E57" t="n">
         <v>1981</v>
@@ -5172,15 +5158,15 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>26.79</v>
+        <v>26.94333333333334</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>26,8</t>
+          <t>26,9</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>0.893</v>
+        <v>0.8981111111111113</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5189,12 +5175,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -5206,7 +5192,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>-0.893</v>
+        <v>-0.8981111111111113</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -5214,10 +5200,10 @@
         </is>
       </c>
       <c r="R57" t="n">
-        <v>37.164444</v>
+        <v>37.416667</v>
       </c>
       <c r="S57" t="n">
-        <v>-5.611389</v>
+        <v>-5.879167</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5228,24 +5214,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>5796</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Base Naval, Rota</t>
+          <t>Morón De La Frontera</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="E58" t="n">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="F58" t="n">
         <v>2010</v>
@@ -5256,15 +5242,15 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>28.05217391304348</v>
+        <v>26.79</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>28,1</t>
+          <t>26,8</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.9350724637681159</v>
+        <v>0.893</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5273,12 +5259,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -5290,7 +5276,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>-0.9350724637681159</v>
+        <v>-0.893</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5298,10 +5284,10 @@
         </is>
       </c>
       <c r="R58" t="n">
-        <v>36.638889</v>
+        <v>37.164444</v>
       </c>
       <c r="S58" t="n">
-        <v>-6.3325</v>
+        <v>-5.611389</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5312,12 +5298,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5960</t>
+          <t>5910</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jerez De La Frontera Aeropuerto</t>
+          <t>Base Naval, Rota</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5326,10 +5312,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E59" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="F59" t="n">
         <v>2010</v>
@@ -5340,15 +5326,15 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>26.975</v>
+        <v>28.05217391304348</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>27,0</t>
+          <t>28,1</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>0.8991666666666667</v>
+        <v>0.9350724637681159</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5357,12 +5343,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -5374,7 +5360,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>-0.8991666666666667</v>
+        <v>-0.9350724637681159</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5382,10 +5368,10 @@
         </is>
       </c>
       <c r="R59" t="n">
-        <v>36.750556</v>
+        <v>36.638889</v>
       </c>
       <c r="S59" t="n">
-        <v>-6.055833</v>
+        <v>-6.3325</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5396,12 +5382,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5960</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Jerez De La Frontera Aeropuerto</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5410,7 +5396,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E60" t="n">
         <v>1981</v>
@@ -5424,29 +5410,29 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>22.98965517241379</v>
+        <v>26.975</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>23,0</t>
+          <t>27,0</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.7663218390804597</v>
+        <v>0.8991666666666667</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -5458,18 +5444,18 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>-0.7663218390804597</v>
+        <v>-0.8991666666666667</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>36.499722</v>
+        <v>36.750556</v>
       </c>
       <c r="S60" t="n">
-        <v>-6.257778</v>
+        <v>-6.055833</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5480,21 +5466,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6000A</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Melilla</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>1981</v>
@@ -5508,29 +5494,29 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>15.84</v>
+        <v>22.98965517241379</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>23,0</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0.528</v>
+        <v>0.7663218390804597</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -5542,18 +5528,18 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>-0.528</v>
+        <v>-0.7663218390804597</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>35.276389</v>
+        <v>36.499722</v>
       </c>
       <c r="S61" t="n">
-        <v>-2.956389</v>
+        <v>-6.257778</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5609,12 +5595,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -5693,12 +5679,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -5777,28 +5763,28 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>-1.05679012345679</v>
+        <v>-0.8567901234567901</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="R64" t="n">
@@ -5861,28 +5847,28 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>-0.9777777777777776</v>
+        <v>-0.8777777777777777</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="R65" t="n">
@@ -5945,28 +5931,28 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>-1.329555555555555</v>
+        <v>-0.6295555555555554</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="R66" t="n">
@@ -6029,12 +6015,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -6113,12 +6099,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -6197,12 +6183,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -6281,28 +6267,28 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>-1.266785714285714</v>
+        <v>-1.066785714285714</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="R70" t="n">
@@ -6365,12 +6351,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -6449,28 +6435,28 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>-2.093888888888889</v>
+        <v>-1.393888888888889</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="R72" t="n">
@@ -6533,28 +6519,28 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>-2.374666666666667</v>
+        <v>-0.3746666666666667</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="R73" t="n">
@@ -6617,28 +6603,28 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>-1.264555555555555</v>
+        <v>-1.364555555555555</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="R74" t="n">
@@ -6697,20 +6683,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
@@ -6771,12 +6757,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -6855,12 +6841,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -6894,24 +6880,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9381I</t>
+          <t>9390</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Calamocha</t>
+          <t>Daroca</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>884</v>
+        <v>774</v>
       </c>
       <c r="E78" t="n">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="F78" t="n">
         <v>2010</v>
@@ -6922,29 +6908,29 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>34.2421052631579</v>
+        <v>37.22666666666667</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>34,2</t>
+          <t>37,2</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1.14140350877193</v>
+        <v>1.240888888888889</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -6956,18 +6942,18 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>-1.14140350877193</v>
+        <v>-1.240888888888889</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>40.926111</v>
+        <v>41.114444</v>
       </c>
       <c r="S78" t="n">
-        <v>-1.293333</v>
+        <v>-1.41</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -6978,12 +6964,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9390</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Daroca</t>
+          <t>Aeropuerto, Zaragoza</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6992,7 +6978,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>774</v>
+        <v>249</v>
       </c>
       <c r="E79" t="n">
         <v>1981</v>
@@ -7006,29 +6992,29 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>37.22666666666667</v>
+        <v>29.51</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>37,2</t>
+          <t>29,5</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1.240888888888889</v>
+        <v>0.9836666666666667</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -7040,18 +7026,18 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>-1.240888888888889</v>
+        <v>-0.9836666666666667</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>41.114444</v>
+        <v>41.660556</v>
       </c>
       <c r="S79" t="n">
-        <v>-1.41</v>
+        <v>-1.004167</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -7062,24 +7048,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9434</t>
+          <t>9771C</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Aeropuerto, Zaragoza</t>
+          <t>Lleida</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Lleida</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="E80" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="F80" t="n">
         <v>2010</v>
@@ -7090,52 +7076,52 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>29.51</v>
+        <v>40.57857142857143</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>29,5</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0.9836666666666667</v>
+        <v>1.352619047619048</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>-0.9836666666666667</v>
+        <v>3.047380952380953</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>+3,0</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>41.660556</v>
+        <v>41.626111</v>
       </c>
       <c r="S80" t="n">
-        <v>-1.004167</v>
+        <v>0.598056</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -7146,24 +7132,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9771C</t>
+          <t>9898</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lleida</t>
+          <t>Aeropuerto, Huesca</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lleida</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>186</v>
+        <v>546</v>
       </c>
       <c r="E81" t="n">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F81" t="n">
         <v>2010</v>
@@ -7174,29 +7160,29 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>40.57857142857143</v>
+        <v>47.46206896551725</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>47,5</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1.352619047619048</v>
+        <v>1.582068965517242</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -7208,18 +7194,18 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>-1.352619047619048</v>
+        <v>-1.582068965517242</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>41.626111</v>
+        <v>42.084444</v>
       </c>
       <c r="S81" t="n">
-        <v>0.598056</v>
+        <v>-0.325556</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -7230,21 +7216,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9898</t>
+          <t>9981A</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Aeropuerto, Huesca</t>
+          <t>Estación De Tortosa (Roquetes)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Tarragona</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>546</v>
+        <v>50</v>
       </c>
       <c r="E82" t="n">
         <v>1981</v>
@@ -7258,131 +7244,77 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>47.46206896551725</v>
+        <v>62.21333333333334</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>47,5</t>
+          <t>62,2</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1.582068965517242</v>
+        <v>2.073777777777778</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>1 de septiembre</t>
+          <t>8 de septiembre</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>-1.582068965517242</v>
+        <v>10.72622222222222</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>+10,7</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>42.084444</v>
+        <v>40.820278</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.325556</v>
+        <v>0.493333</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Mucho más</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>9981A</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Estación De Tortosa (Roquetes)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Tarragona</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>50</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1981</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>septiembre</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>62.21333333333334</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>62,2</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>2.073777777777778</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>1 de septiembre</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>-2.073777777777778</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
         <v>40.820278</v>
       </c>
@@ -7391,7 +7323,7 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Similar</t>
+          <t>Mucho menos</t>
         </is>
       </c>
     </row>
@@ -7421,67 +7353,7 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Mucho menos</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="n">
-        <v>40.820278</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.493333</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
           <t>Menos</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="n">
-        <v>40.820278</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.493333</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>Mucho más</t>
         </is>
       </c>
     </row>
